--- a/docentes/Herrera Serrano Mayra Iliana Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana Estadisticos 2020.xlsx
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
